--- a/Product_Backlog/Product_Backlog.xlsx
+++ b/Product_Backlog/Product_Backlog.xlsx
@@ -1,39 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA7C3D4-716D-423F-B530-27D0B4244BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
   <si>
     <r>
       <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="18.0"/>
       </rPr>
       <t xml:space="preserve">                                                   </t>
     </r>
     <r>
       <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="24.0"/>
       </rPr>
       <t>AGILE PRODUCT BACKLOG</t>
     </r>
     <r>
       <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="18.0"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -217,39 +226,64 @@
   </si>
   <si>
     <t>I can share my experiences</t>
+  </si>
+  <si>
+    <t>more users can make changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -257,7 +291,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -297,11 +331,21 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -310,11 +354,18 @@
       <right style="thin">
         <color rgb="FFEFEFEF"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFB7B7B7"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -323,94 +374,106 @@
       <right style="thin">
         <color rgb="FFB7B7B7"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFB7B7B7"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -600,28 +663,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.0"/>
-    <col customWidth="1" min="2" max="2" width="11.14"/>
-    <col customWidth="1" min="3" max="3" width="62.14"/>
-    <col customWidth="1" min="4" max="4" width="47.43"/>
-    <col customWidth="1" min="7" max="7" width="13.71"/>
-    <col customWidth="1" min="10" max="10" width="15.0"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="62.08984375" customWidth="1"/>
+    <col min="4" max="4" width="47.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1">
+    <row r="1" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +703,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -667,9 +735,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
@@ -684,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>16</v>
@@ -699,9 +767,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>11</v>
@@ -716,13 +784,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>16</v>
@@ -731,14 +799,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -748,13 +816,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>16</v>
@@ -763,9 +831,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>20</v>
@@ -780,64 +848,54 @@
         <v>14</v>
       </c>
       <c r="F6" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10">
-        <v>8.0</v>
+      <c r="H6" s="25">
+        <v>23</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>4.1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="10">
-        <v>4.0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="20"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="18"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4.2</v>
       </c>
@@ -845,31 +903,41 @@
         <v>11</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="10">
-        <v>3.0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="J8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="19"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>4.3</v>
       </c>
@@ -877,427 +945,459 @@
         <v>11</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="10">
-        <v>8.0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="J9" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="14" t="s">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>6.0</v>
+        <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>34</v>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F11" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="10">
-        <v>3.0</v>
+        <v>8</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="J11" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>7.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>37</v>
+      <c r="C12" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="10">
-        <v>8.0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="10">
+        <v>8</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
+    <row r="14" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15">
+        <v>23</v>
+      </c>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>10.0</v>
+        <v>9</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F15" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="10">
-        <v>3.0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16">
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>11.0</v>
+        <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H16" s="10">
-        <v>13.0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17">
+        <v>16</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>12.0</v>
+        <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="10">
-        <v>20.0</v>
+        <v>13</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18">
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="10">
-        <v>7.0</v>
+      <c r="H18" s="26">
+        <v>20</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19">
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="10">
-        <v>13.0</v>
+        <v>7</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20">
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>13.0</v>
+        <v>12.2</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H20" s="10">
-        <v>5.0</v>
+        <v>13</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21">
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>14.0</v>
-      </c>
-      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F21" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="G21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="10">
-        <v>3.0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22">
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>15.0</v>
-      </c>
-      <c r="B22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="10">
+        <v>3</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="F23" s="10">
+        <v>3</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="I22" s="13" t="s">
+      <c r="H23" s="10">
+        <v>8</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J23" s="21"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>